--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Barry.Spring.030220-2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Barry.Spring.030220-2.xlsx_with_dialog_acts.xlsx
@@ -639,12 +639,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -807,12 +807,12 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1399,12 +1399,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1483,12 +1483,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1995,12 +1995,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2793,12 +2793,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2919,12 +2919,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2961,12 +2961,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3171,12 +3171,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3805,12 +3805,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4183,12 +4183,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4643,12 +4643,12 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4685,12 +4685,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5323,12 +5323,12 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5365,12 +5365,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5701,12 +5701,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5827,12 +5827,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6041,12 +6041,12 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6375,12 +6375,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6421,12 +6421,12 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6931,12 +6931,12 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6973,12 +6973,12 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7355,12 +7355,12 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7401,12 +7401,12 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7531,12 +7531,12 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7573,12 +7573,12 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7745,12 +7745,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8585,12 +8585,12 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8921,12 +8921,12 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9005,12 +9005,12 @@
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9303,12 +9303,12 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9681,12 +9681,12 @@
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9807,12 +9807,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10271,12 +10271,12 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10397,12 +10397,12 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10565,12 +10565,12 @@
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
